--- a/files/投資損益.xlsx
+++ b/files/投資損益.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\herokuspace\works\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\herokuWorkspace\works\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946005EA-4C2B-4BDC-81CF-F05BA3A7CDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7310DB-F1B6-4A4A-A136-FD94B6C077E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8CA935DE-DC50-4BE7-80C3-5214716B8975}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{8CA935DE-DC50-4BE7-80C3-5214716B8975}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t>１年目</t>
     <rPh sb="1" eb="3">
@@ -175,6 +175,16 @@
   </si>
   <si>
     <t>ポジティブ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>単位：千円</t>
+    <rPh sb="0" eb="2">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センエン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -231,7 +241,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,6 +263,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,7 +316,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -319,13 +335,13 @@
     <xf numFmtId="38" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -336,6 +352,9 @@
     </xf>
     <xf numFmtId="38" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -654,11 +673,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE610F1D-26D1-4D24-8AC5-B28BCD75AB12}">
   <dimension ref="B2:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:J16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -667,7 +686,7 @@
     <col min="10" max="10" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
@@ -677,9 +696,11 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="4" t="s">
@@ -688,20 +709,20 @@
       <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="12" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="12" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
@@ -727,7 +748,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="5"/>
@@ -736,7 +757,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
@@ -763,11 +784,11 @@
         <v>300000</v>
       </c>
       <c r="I6" s="3">
-        <f>I4*2500</f>
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <f>SUM(D6:H6)</f>
+        <v>562500</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
@@ -798,7 +819,7 @@
         <v>337500</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
@@ -828,7 +849,7 @@
         <v>225000</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="5"/>
@@ -837,7 +858,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
@@ -862,7 +883,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
         <v>9</v>
@@ -888,7 +909,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B13" s="6" t="s">
         <v>8</v>
       </c>
@@ -905,7 +926,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
@@ -935,7 +956,7 @@
         <v>175500</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -952,11 +973,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0526D12B-3682-4A56-967A-0CFDB238A96A}">
   <dimension ref="B2:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:J15"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -965,7 +986,7 @@
     <col min="10" max="10" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
@@ -977,7 +998,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="4" t="s">
@@ -986,20 +1007,20 @@
       <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="12" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="12" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1025,7 +1046,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="5"/>
@@ -1034,7 +1055,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
@@ -1061,11 +1082,11 @@
         <v>125000</v>
       </c>
       <c r="I6" s="3">
-        <f>I4*2500</f>
-        <v>125000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <f>SUM(D6:H6)</f>
+        <v>337500</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
@@ -1096,7 +1117,7 @@
         <v>202500</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
@@ -1126,7 +1147,7 @@
         <v>135000</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="5"/>
@@ -1135,7 +1156,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
@@ -1160,7 +1181,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
         <v>9</v>
@@ -1186,7 +1207,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B13" s="6" t="s">
         <v>8</v>
       </c>
@@ -1203,7 +1224,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
@@ -1233,7 +1254,7 @@
         <v>85500</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
